--- a/수정리스트_20160801.xlsx
+++ b/수정리스트_20160801.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="291">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,13 +1213,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>달력 화면에서 &lt;-  , -&gt; 버튼 클릭시 이전달, 다음달로 이벤트 동작되지 않음. 확인요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart점검,NEARMISS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>변경전 : 조치전사진, 조치후 사진 토글 버튼
-변경후 : 조치전사진,조치후 사진 왼쪽 하단(투명, 카메라버튼),오른쪽하단(투명,갤러리버튼) 
+변경후 : 조치전사진,조치후 사진 오른쪽 하단에 카메라버튼,갤러리버튼 두개로 이미지 
+            크기를 좀 줄이고 표시되도록 수정
+            (오른쪽 카메라,사진버튼동일하되 투명도를 줘서 사진이 최대한 안가리도록처리) 
 * 토글버튼으로 되어있는 화면들은 버튼 두개로 변경되어야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달력 화면에서 &lt;-  , -&gt; 버튼 클릭시 이전달, 다음달로 이벤트 동작되지 않음. 확인요망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1604,6 +1610,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4838700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5410199</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="49920525"/>
+          <a:ext cx="571499" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1896,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4220,7 +4270,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>270</v>
       </c>
@@ -4243,14 +4293,16 @@
       <c r="H104" s="16"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="19" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B105" s="23"/>
+      <c r="B105" s="23" t="s">
+        <v>289</v>
+      </c>
       <c r="C105" s="33"/>
       <c r="D105" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>282</v>
@@ -4269,7 +4321,7 @@
       <c r="B106" s="23"/>
       <c r="C106" s="33"/>
       <c r="D106" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>30</v>

--- a/수정리스트_20160801.xlsx
+++ b/수정리스트_20160801.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="297">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,6 +1226,30 @@
             크기를 좀 줄이고 표시되도록 수정
             (오른쪽 카메라,사진버튼동일하되 투명도를 줘서 사진이 최대한 안가리도록처리) 
 * 토글버튼으로 되어있는 화면들은 버튼 두개로 변경되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인,퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장명,담당업무 표기(오른쪽이미지참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.08.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1_pds_search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실 검색화면 리스트 화면 아이콘 및 이벤트영역 분리요청.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1654,6 +1678,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2428874</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>45755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3706149</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572374" y="53004755"/>
+          <a:ext cx="1277275" cy="754345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3766991</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4610984</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>838978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8910491" y="53921024"/>
+          <a:ext cx="843993" cy="743729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1944,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4374,6 +4486,50 @@
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="23"/>
+    </row>
+    <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="33"/>
+      <c r="D109" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H109" s="16"/>
+      <c r="I109" s="23"/>
+    </row>
+    <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H110" s="16"/>
+      <c r="I110" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
